--- a/output/NewsTest2.xlsx
+++ b/output/NewsTest2.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" activeCellId="1" sqref="A1:B10 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/NewsTest2.xlsx
+++ b/output/NewsTest2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Hunyo 30</t>
   </si>
@@ -69,13 +69,61 @@
     <t>Marso 2003</t>
   </si>
   <si>
-    <t>noong Marso 2003</t>
-  </si>
-  <si>
     <t>dating Pangulong Joseph Estrada</t>
   </si>
   <si>
     <t>batang Estrada</t>
+  </si>
+  <si>
+    <t>sa Hunyo 30</t>
+  </si>
+  <si>
+    <t>sa Marso 2003</t>
+  </si>
+  <si>
+    <t>Ayon</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Idinagdag Villaignacio</t>
+  </si>
+  <si>
+    <t>Ito</t>
+  </si>
+  <si>
+    <t>Kongreso</t>
+  </si>
+  <si>
+    <t>Magugunitang</t>
+  </si>
+  <si>
+    <t>Once the SC</t>
+  </si>
+  <si>
+    <t>P500,000</t>
+  </si>
+  <si>
+    <t>Samantala,</t>
+  </si>
+  <si>
+    <t>Sandiganbayan Special Division</t>
+  </si>
+  <si>
+    <t>Sinabi Villaignacio</t>
+  </si>
+  <si>
+    <t>Siniguro</t>
+  </si>
+  <si>
+    <t>Special Division</t>
+  </si>
+  <si>
+    <t>Ulat Malou Rongalerios</t>
+  </si>
+  <si>
+    <t>Walang</t>
   </si>
 </sst>
 </file>
@@ -883,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="1" sqref="A1:B10 B12"/>
+      <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +945,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -905,15 +953,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -930,13 +978,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -944,13 +992,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -958,7 +1006,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -969,7 +1017,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -980,7 +1028,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -991,7 +1039,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1002,7 +1050,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1012,8 +1060,118 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
